--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2825659.185199981</v>
+        <v>-2826371.449953727</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.199249640013477</v>
+        <v>3.376898027766035</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1776483877525586</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1218,64 +1218,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.097658594934726</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>3.516869431124803</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F11" t="n">
-        <v>45.73535533232331</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.8703951070085</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294981</v>
+        <v>16.74367530294982</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013697</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>63.47866499037599</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.37638767482494</v>
+        <v>108.9921096376903</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>121.7216374333623</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82929343736549</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U12" t="n">
         <v>59.08630782930764</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586126</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W12" t="n">
         <v>88.56281972747061</v>
@@ -1515,7 +1515,7 @@
         <v>39.17115058992962</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4860450762374</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="13">
@@ -1576,7 +1576,7 @@
         <v>25.28944752386648</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345549</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T13" t="n">
         <v>45.61991340433105</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>85.48921964285481</v>
+        <v>127.7726965170873</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700849</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294981</v>
+        <v>16.74367530294982</v>
       </c>
       <c r="S14" t="n">
         <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692372</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
         <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736549</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="U15" t="n">
         <v>59.08630782930764</v>
@@ -1746,10 +1746,10 @@
         <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
-        <v>167.7546492128576</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4860450762374</v>
+        <v>130.0439005857065</v>
       </c>
       <c r="Y15" t="n">
         <v>45.24252228448464</v>
@@ -1813,7 +1813,7 @@
         <v>25.28944752386648</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345549</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
         <v>45.61991340433105</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.2402173415806</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>177.7540591817212</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6.846193426571245</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.4783038239311</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>188.4860450762374</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>188.4860450762374</v>
@@ -2226,7 +2226,7 @@
         <v>188.4860450762374</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.17565244282965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>52.01821428421871</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.19506938322132</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.5992110257044</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7174680290499</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
         <v>124.2841302900983</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442052</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754899</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335739</v>
+        <v>8.978123394335711</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3917542570231</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2946849425772</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7975380663209</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>94.53924461150191</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777508</v>
+        <v>1.48302793477748</v>
       </c>
       <c r="U27" t="n">
-        <v>117.9111100303496</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327328</v>
+        <v>27.16089156327325</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21655422488263</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341642</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896653</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086748</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174307</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113565</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039455</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5992110257044</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7174680290499</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
         <v>124.2841302900983</v>
@@ -2807,10 +2807,10 @@
         <v>205.350205597189</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.5241296044205</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754898</v>
+        <v>14.03037772754896</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335746</v>
+        <v>8.978123394335718</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3917542570231</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2946849425772</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
         <v>168.7975380663209</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>91.28412407524792</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777508</v>
+        <v>1.48302793477748</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671965</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327328</v>
+        <v>117.6268803390959</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341642</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896653</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086748</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174307</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U31" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113565</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039455</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664838</v>
+        <v>159.6893265664837</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698293</v>
+        <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.1204932683284</v>
+        <v>13.12049326832837</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115147</v>
+        <v>8.068238935115119</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023374</v>
+        <v>35.75263264023371</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978025</v>
+        <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833566</v>
+        <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>28.22950329986304</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569156</v>
+        <v>0.5731434755568879</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749906</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405269</v>
+        <v>26.25100710405266</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566204</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121049</v>
+        <v>2.915000628121021</v>
       </c>
       <c r="Y33" t="n">
-        <v>30.59545596584968</v>
+        <v>8.986372322676033</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164692</v>
+        <v>21.04061512164689</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522478</v>
+        <v>9.363763442522449</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385711</v>
+        <v>74.25864467385708</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310035</v>
+        <v>30.71110137310032</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798577</v>
+        <v>75.91279327798574</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892973</v>
+        <v>7.521541596892945</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818863</v>
+        <v>2.743359002818835</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>158.4766775673042</v>
+        <v>88.99290799534057</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3582,7 +3582,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3624,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>113.9120973108982</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>144.6713765469187</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4612548573207</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.0750814212839</v>
+        <v>133.0750814212838</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1933384246294</v>
+        <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76000068567782</v>
+        <v>96.7600006856778</v>
       </c>
       <c r="E41" t="n">
         <v>130.4667531050867</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033847</v>
+        <v>9.138387495033811</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260256</v>
+        <v>79.86762465260253</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88430486921743</v>
+        <v>96.8843048692174</v>
       </c>
       <c r="X41" t="n">
-        <v>118.7705553381567</v>
+        <v>118.7705553381566</v>
       </c>
       <c r="Y41" t="n">
         <v>141.2734084619004</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>156.9343305109787</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046213</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>27.2643816050324</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.6443995286572</v>
+        <v>47.64439952865717</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900446</v>
+        <v>4.096856227900417</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278587</v>
+        <v>49.29854813278584</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.0750814212839</v>
+        <v>133.0750814212838</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1933384246294</v>
+        <v>109.1933384246293</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76000068567782</v>
+        <v>96.7600006856778</v>
       </c>
       <c r="E44" t="n">
         <v>130.4667531050867</v>
@@ -3992,7 +3992,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729794</v>
+        <v>106.0098744729795</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033847</v>
+        <v>9.138387495033818</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260256</v>
+        <v>79.86762465260253</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88430486921743</v>
+        <v>96.8843048692174</v>
       </c>
       <c r="X44" t="n">
-        <v>118.7705553381567</v>
+        <v>118.7705553381566</v>
       </c>
       <c r="Y44" t="n">
         <v>141.2734084619004</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>48.31310366410987</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>14.03812150906518</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69242462046213</v>
+        <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.6443995286572</v>
+        <v>47.64439952865717</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900446</v>
+        <v>4.096856227900417</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278587</v>
+        <v>49.29854813278584</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4790,19 +4790,19 @@
         <v>7.244751028117094</v>
       </c>
       <c r="F8" t="n">
-        <v>4.013185735174188</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K8" t="n">
         <v>0.2813495544899843</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="C9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="D9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833742919262513</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,16 +4887,16 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>3.763050291303539</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
-        <v>7.244751028117094</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>10.72645176493065</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4914,19 +4914,19 @@
         <v>14.06747772449921</v>
       </c>
       <c r="U9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W9" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="N10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="O10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="P10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="R10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="S10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="T10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="U10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="V10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="W10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="X10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.0779632666658</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="C11" t="n">
-        <v>61.27621222460738</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="D11" t="n">
-        <v>61.27621222460738</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="E11" t="n">
-        <v>61.27621222460738</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="F11" t="n">
-        <v>15.07888360609899</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07888360609899</v>
+        <v>249.1704640980146</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07888360609899</v>
+        <v>78.5843332091379</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115223</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1128385102957</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8239968493322</v>
+        <v>162.1313769505587</v>
       </c>
       <c r="M11" t="n">
-        <v>412.6751204626776</v>
+        <v>348.7325615760336</v>
       </c>
       <c r="N11" t="n">
-        <v>487.9920637663398</v>
+        <v>535.3337462015086</v>
       </c>
       <c r="O11" t="n">
-        <v>674.5932483918148</v>
+        <v>721.9349308269835</v>
       </c>
       <c r="P11" t="n">
-        <v>674.5932483918148</v>
+        <v>721.9349308269835</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686364</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664779</v>
+        <v>687.1559797664777</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695852</v>
+        <v>687.1559797664777</v>
       </c>
       <c r="U11" t="n">
-        <v>569.6477257271182</v>
+        <v>687.1559797664777</v>
       </c>
       <c r="V11" t="n">
-        <v>425.4679077881177</v>
+        <v>687.1559797664777</v>
       </c>
       <c r="W11" t="n">
-        <v>425.4679077881177</v>
+        <v>623.0361161398353</v>
       </c>
       <c r="X11" t="n">
-        <v>425.4679077881177</v>
+        <v>439.5604086194664</v>
       </c>
       <c r="Y11" t="n">
-        <v>235.0779632666658</v>
+        <v>439.5604086194664</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.5558862044096</v>
+        <v>125.17192364417</v>
       </c>
       <c r="C12" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E12" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M12" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N12" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263742</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S12" t="n">
-        <v>630.9930313823612</v>
+        <v>740.3586818094905</v>
       </c>
       <c r="T12" t="n">
-        <v>593.7917248799719</v>
+        <v>549.9687372880386</v>
       </c>
       <c r="U12" t="n">
-        <v>534.108585658449</v>
+        <v>490.2855980665157</v>
       </c>
       <c r="V12" t="n">
-        <v>470.97004316768</v>
+        <v>299.8956535450639</v>
       </c>
       <c r="W12" t="n">
-        <v>381.5126495035682</v>
+        <v>210.4382598809521</v>
       </c>
       <c r="X12" t="n">
-        <v>341.9458307258615</v>
+        <v>170.8714411032454</v>
       </c>
       <c r="Y12" t="n">
-        <v>151.5558862044096</v>
+        <v>125.17192364417</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882615</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>27.16621540761909</v>
+        <v>26.64662065489193</v>
       </c>
       <c r="D13" t="n">
-        <v>27.16621540761909</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="E13" t="n">
-        <v>27.16621540761909</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98894822240248</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33549972853203</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="H13" t="n">
-        <v>75.33549972853203</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="I13" t="n">
-        <v>88.49057973927356</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="J13" t="n">
-        <v>88.49057973927356</v>
+        <v>116.5973316603193</v>
       </c>
       <c r="K13" t="n">
-        <v>198.488047471536</v>
+        <v>116.5973316603193</v>
       </c>
       <c r="L13" t="n">
-        <v>343.0140030775051</v>
+        <v>261.1232872662883</v>
       </c>
       <c r="M13" t="n">
-        <v>402.3069076016771</v>
+        <v>412.5146217445574</v>
       </c>
       <c r="N13" t="n">
-        <v>402.3069076016771</v>
+        <v>412.5146217445574</v>
       </c>
       <c r="O13" t="n">
-        <v>402.3069076016771</v>
+        <v>412.5146217445574</v>
       </c>
       <c r="P13" t="n">
         <v>520.770111631706</v>
@@ -5239,10 +5239,10 @@
         <v>98.69221746804746</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471257</v>
+        <v>54.47232700471256</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07888360609899</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>687.1559797664779</v>
+        <v>314.7283443102155</v>
       </c>
       <c r="C14" t="n">
-        <v>687.1559797664779</v>
+        <v>314.7283443102155</v>
       </c>
       <c r="D14" t="n">
-        <v>525.9131557334614</v>
+        <v>314.7283443102155</v>
       </c>
       <c r="E14" t="n">
-        <v>439.5604086194665</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5604086194665</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913787</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>95.98777246509852</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102957</v>
+        <v>265.6803923638719</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8239968493322</v>
+        <v>452.2815769893469</v>
       </c>
       <c r="M14" t="n">
-        <v>518.4251814748071</v>
+        <v>533.1327006026922</v>
       </c>
       <c r="N14" t="n">
-        <v>593.7421247784694</v>
+        <v>719.7338852281673</v>
       </c>
       <c r="O14" t="n">
-        <v>627.9524198552517</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852712</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686364</v>
+        <v>737.0313769686367</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664779</v>
+        <v>687.1559797664781</v>
       </c>
       <c r="T14" t="n">
-        <v>687.1559797664779</v>
+        <v>642.3838697695854</v>
       </c>
       <c r="U14" t="n">
-        <v>687.1559797664779</v>
+        <v>642.3838697695854</v>
       </c>
       <c r="V14" t="n">
-        <v>687.1559797664779</v>
+        <v>498.2040518305844</v>
       </c>
       <c r="W14" t="n">
-        <v>687.1559797664779</v>
+        <v>498.2040518305844</v>
       </c>
       <c r="X14" t="n">
-        <v>687.1559797664779</v>
+        <v>314.7283443102155</v>
       </c>
       <c r="Y14" t="n">
-        <v>687.1559797664779</v>
+        <v>314.7283443102155</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.7970909952342</v>
+        <v>24.54998226753833</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D15" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E15" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F15" t="n">
-        <v>165.3259923337949</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G15" t="n">
         <v>15.07888360609899</v>
@@ -5361,46 +5361,46 @@
         <v>53.03690762936461</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576281</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N15" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831029</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263742</v>
+        <v>670.3253369263741</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9441803049494</v>
+        <v>617.8614934590255</v>
       </c>
       <c r="S15" t="n">
-        <v>740.3586818094907</v>
+        <v>604.2759949635667</v>
       </c>
       <c r="T15" t="n">
-        <v>703.1573753071013</v>
+        <v>413.8860504421148</v>
       </c>
       <c r="U15" t="n">
-        <v>643.4742360855785</v>
+        <v>354.2029112205919</v>
       </c>
       <c r="V15" t="n">
-        <v>580.3356935948095</v>
+        <v>291.0643687298229</v>
       </c>
       <c r="W15" t="n">
-        <v>410.8865529757614</v>
+        <v>201.6069750657112</v>
       </c>
       <c r="X15" t="n">
-        <v>220.4966084543096</v>
+        <v>70.24949972661372</v>
       </c>
       <c r="Y15" t="n">
-        <v>174.7970909952342</v>
+        <v>24.54998226753833</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.59847835882615</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C16" t="n">
-        <v>15.59847835882615</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D16" t="n">
-        <v>48.22800082166812</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E16" t="n">
-        <v>48.22800082166812</v>
+        <v>51.17985001704183</v>
       </c>
       <c r="F16" t="n">
-        <v>87.0507336364515</v>
+        <v>51.17985001704183</v>
       </c>
       <c r="G16" t="n">
-        <v>96.39728514258104</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="H16" t="n">
-        <v>96.39728514258104</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="I16" t="n">
-        <v>96.39728514258104</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="J16" t="n">
-        <v>96.39728514258104</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="K16" t="n">
-        <v>96.39728514258104</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="L16" t="n">
-        <v>240.9232407485501</v>
+        <v>60.52640152317137</v>
       </c>
       <c r="M16" t="n">
-        <v>240.9232407485501</v>
+        <v>211.9177360014404</v>
       </c>
       <c r="N16" t="n">
-        <v>331.1045263065716</v>
+        <v>371.9189140297925</v>
       </c>
       <c r="O16" t="n">
         <v>470.3568865385322</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417493</v>
+        <v>463.3662739417498</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731526</v>
+        <v>410.0798406731531</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135984</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879736</v>
+        <v>294.5776034879741</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336858</v>
       </c>
       <c r="G17" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151399</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609899</v>
@@ -5513,52 +5513,52 @@
         <v>70.95425539993043</v>
       </c>
       <c r="J17" t="n">
-        <v>193.5012202344618</v>
+        <v>70.95425539993043</v>
       </c>
       <c r="K17" t="n">
-        <v>193.5012202344618</v>
+        <v>191.4444744220565</v>
       </c>
       <c r="L17" t="n">
-        <v>240.2123785734982</v>
+        <v>378.0456590475315</v>
       </c>
       <c r="M17" t="n">
-        <v>426.8135631989732</v>
+        <v>458.8967826608769</v>
       </c>
       <c r="N17" t="n">
-        <v>502.1305065026354</v>
+        <v>645.4979672863519</v>
       </c>
       <c r="O17" t="n">
-        <v>536.3408015794178</v>
+        <v>679.7082623631343</v>
       </c>
       <c r="P17" t="n">
-        <v>536.3408015794178</v>
+        <v>679.7082623631343</v>
       </c>
       <c r="Q17" t="n">
-        <v>536.3408015794178</v>
+        <v>679.7082623631343</v>
       </c>
       <c r="R17" t="n">
-        <v>637.8816259792673</v>
+        <v>679.7082623631343</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1158121312014</v>
+        <v>679.7082623631343</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312014</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394103</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985026</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515954</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342394</v>
+        <v>540.7756799342401</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>349.4222037236528</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C18" t="n">
-        <v>349.4222037236528</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D18" t="n">
-        <v>188.6420874846845</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E18" t="n">
         <v>15.07888360609899</v>
@@ -5595,49 +5595,49 @@
         <v>15.07888360609899</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936462</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743618</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576281</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N18" t="n">
-        <v>538.632209383103</v>
+        <v>538.6322093831029</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263742</v>
+        <v>670.3253369263741</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="R18" t="n">
-        <v>718.3480011720397</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="S18" t="n">
-        <v>718.3480011720397</v>
+        <v>563.5542357834973</v>
       </c>
       <c r="T18" t="n">
-        <v>718.3480011720397</v>
+        <v>384.004681054486</v>
       </c>
       <c r="U18" t="n">
-        <v>718.3480011720397</v>
+        <v>384.004681054486</v>
       </c>
       <c r="V18" t="n">
-        <v>718.3480011720397</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="W18" t="n">
-        <v>527.9580566505879</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="X18" t="n">
-        <v>527.9580566505879</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="Y18" t="n">
-        <v>527.9580566505879</v>
+        <v>193.6147365330341</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417496</v>
+        <v>463.36627394175</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731533</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135983</v>
+        <v>369.3523344135986</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879741</v>
+        <v>294.5776034879743</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336859</v>
       </c>
       <c r="G20" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151402</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609899</v>
@@ -5753,49 +5753,49 @@
         <v>15.07888360609899</v>
       </c>
       <c r="K20" t="n">
-        <v>143.6522907211731</v>
+        <v>201.680068231574</v>
       </c>
       <c r="L20" t="n">
-        <v>190.3634490602096</v>
+        <v>248.3912265706105</v>
       </c>
       <c r="M20" t="n">
-        <v>271.214572673555</v>
+        <v>329.2423501839559</v>
       </c>
       <c r="N20" t="n">
-        <v>346.5315159772172</v>
+        <v>404.559293487618</v>
       </c>
       <c r="O20" t="n">
-        <v>380.7418110539995</v>
+        <v>438.7695885644003</v>
       </c>
       <c r="P20" t="n">
-        <v>567.3429956794745</v>
+        <v>605.5749877313522</v>
       </c>
       <c r="Q20" t="n">
-        <v>753.9441803049494</v>
+        <v>605.5749877313522</v>
       </c>
       <c r="R20" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9441803049494</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049494</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394102</v>
+        <v>730.2796801394104</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985023</v>
+        <v>689.4266140985026</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515952</v>
+        <v>626.4662243515954</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342401</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.5363139700587</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="C21" t="n">
-        <v>176.5363139700587</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="D21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609899</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936462</v>
+        <v>53.03690762936492</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743617</v>
+        <v>170.362697574362</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576279</v>
+        <v>352.0310247576282</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831029</v>
+        <v>538.6322093831033</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263741</v>
+        <v>670.3253369263745</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="U21" t="n">
-        <v>563.5542357834975</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="V21" t="n">
-        <v>563.5542357834975</v>
+        <v>563.5542357834977</v>
       </c>
       <c r="W21" t="n">
-        <v>373.1642912620456</v>
+        <v>373.1642912620457</v>
       </c>
       <c r="X21" t="n">
-        <v>182.7743467405937</v>
+        <v>182.7743467405938</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.5363139700587</v>
+        <v>182.7743467405938</v>
       </c>
     </row>
     <row r="22">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417495</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731524</v>
+        <v>410.0798406731528</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135976</v>
+        <v>369.3523344135981</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F23" t="n">
         <v>187.7621275336853</v>
@@ -5984,55 +5984,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993042</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95425539993042</v>
+        <v>388.2812528570488</v>
       </c>
       <c r="L23" t="n">
-        <v>257.5554400254053</v>
+        <v>434.9924111960852</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4065636387508</v>
+        <v>515.8435348094306</v>
       </c>
       <c r="N23" t="n">
-        <v>413.7235069424129</v>
+        <v>591.1604781130927</v>
       </c>
       <c r="O23" t="n">
-        <v>447.9338020191953</v>
+        <v>625.3707731898751</v>
       </c>
       <c r="P23" t="n">
-        <v>634.5349866446702</v>
+        <v>625.3707731898751</v>
       </c>
       <c r="Q23" t="n">
-        <v>753.9441803049492</v>
+        <v>625.3707731898751</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9441803049492</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9441803049492</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049492</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U23" t="n">
         <v>753.9441803049492</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394099</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985017</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515946</v>
+        <v>626.466224351595</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342392</v>
+        <v>540.7756799342396</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.6284383351104</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="C24" t="n">
-        <v>142.0847875429703</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="D24" t="n">
-        <v>142.0847875429703</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="E24" t="n">
-        <v>142.0847875429703</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="F24" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0847875429703</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H24" t="n">
         <v>15.07888360609898</v>
@@ -6069,13 +6069,13 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0310247576279</v>
+        <v>352.0310247576278</v>
       </c>
       <c r="N24" t="n">
         <v>538.6322093831028</v>
@@ -6090,28 +6090,28 @@
         <v>753.9441803049492</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9441803049492</v>
+        <v>746.6764334532105</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9441803049492</v>
+        <v>556.2864889317586</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9441803049492</v>
+        <v>365.8965444103068</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9441803049492</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="V24" t="n">
-        <v>753.9441803049492</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5542357834973</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="X24" t="n">
-        <v>373.1642912620455</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.1642912620455</v>
+        <v>175.5065998888549</v>
       </c>
     </row>
     <row r="25">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073108</v>
+        <v>882.7789886073098</v>
       </c>
       <c r="D26" t="n">
-        <v>757.239463061757</v>
+        <v>757.2394630617559</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501335</v>
+        <v>597.6527128501325</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098461</v>
+        <v>406.0252176098451</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116751</v>
+        <v>198.6007675116744</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026093</v>
+        <v>63.71793511026091</v>
       </c>
       <c r="I26" t="n">
         <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476708</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940063</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916496</v>
+        <v>633.9996519916505</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636026</v>
+        <v>926.2039246636035</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436591</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.789199734232</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019537</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510107</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143749</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>398.8912621403065</v>
+        <v>320.8222447379855</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4789878732702</v>
+        <v>131.4099704709492</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4789878732702</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
         <v>35.91578399468465</v>
@@ -6327,28 +6327,28 @@
         <v>793.0763328677682</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677682</v>
+        <v>656.9936460218444</v>
       </c>
       <c r="S27" t="n">
-        <v>793.0763328677682</v>
+        <v>656.9936460218444</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528414</v>
+        <v>655.4956380069176</v>
       </c>
       <c r="U27" t="n">
-        <v>672.4761935090539</v>
+        <v>631.5157972728574</v>
       </c>
       <c r="V27" t="n">
-        <v>645.0409495057476</v>
+        <v>604.080553269551</v>
       </c>
       <c r="W27" t="n">
-        <v>591.2868543290984</v>
+        <v>550.3264580929019</v>
       </c>
       <c r="X27" t="n">
-        <v>587.4233340388544</v>
+        <v>546.4629378026578</v>
       </c>
       <c r="Y27" t="n">
-        <v>577.4271150672416</v>
+        <v>320.8222447379855</v>
       </c>
     </row>
     <row r="28">
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H28" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I28" t="n">
-        <v>111.1925057405406</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J28" t="n">
-        <v>111.1925057405406</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K28" t="n">
-        <v>256.1827763203651</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="L28" t="n">
-        <v>256.1827763203651</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="M28" t="n">
-        <v>256.1827763203651</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="N28" t="n">
-        <v>256.1827763203651</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="O28" t="n">
-        <v>256.1827763203651</v>
+        <v>210.1609470742073</v>
       </c>
       <c r="P28" t="n">
-        <v>256.1827763203651</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.1827763203651</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204433</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974705</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U28" t="n">
         <v>157.6615749923415</v>
@@ -6421,10 +6421,10 @@
         <v>125.7211852627244</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1225208817079</v>
+        <v>48.12252088170785</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583561</v>
+        <v>39.60592890583559</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91578399468465</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073109</v>
+        <v>882.7789886073102</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617571</v>
+        <v>757.2394630617564</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501336</v>
+        <v>597.652712850133</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098462</v>
+        <v>406.0252176098456</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116755</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026101</v>
+        <v>63.7179351102609</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468465</v>
@@ -6464,25 +6464,25 @@
         <v>171.24992184767</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940062</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916504</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636025</v>
+        <v>926.2039246636035</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436591</v>
       </c>
       <c r="R29" t="n">
         <v>1795.789199734232</v>
@@ -6506,7 +6506,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>278.3690786569744</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C30" t="n">
-        <v>278.3690786569744</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D30" t="n">
-        <v>186.1628927223805</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E30" t="n">
-        <v>186.1628927223805</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F30" t="n">
-        <v>186.1628927223805</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G30" t="n">
         <v>35.91578399468465</v>
@@ -6543,49 +6543,49 @@
         <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8738080179503</v>
+        <v>73.87380801795027</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629474</v>
+        <v>191.1995979629473</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462137</v>
+        <v>372.8679251462136</v>
       </c>
       <c r="N30" t="n">
-        <v>577.764361945922</v>
+        <v>577.7643619459218</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891932</v>
+        <v>709.457489489193</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677684</v>
+        <v>793.0763328677682</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.0763328677684</v>
+        <v>793.0763328677682</v>
       </c>
       <c r="R30" t="n">
-        <v>793.0763328677684</v>
+        <v>656.9936460218444</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677684</v>
+        <v>463.4669719207886</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528417</v>
+        <v>461.9689639058619</v>
       </c>
       <c r="U30" t="n">
-        <v>767.5984841187814</v>
+        <v>437.9891231718016</v>
       </c>
       <c r="V30" t="n">
-        <v>740.163240115475</v>
+        <v>319.1740925262502</v>
       </c>
       <c r="W30" t="n">
-        <v>470.7646708457663</v>
+        <v>265.4199973496011</v>
       </c>
       <c r="X30" t="n">
-        <v>466.9011505555222</v>
+        <v>261.556477059357</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.9049315839094</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42818159497391</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C31" t="n">
-        <v>79.75488879346821</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D31" t="n">
-        <v>79.75488879346821</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E31" t="n">
-        <v>79.75488879346821</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F31" t="n">
-        <v>79.75488879346821</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G31" t="n">
-        <v>79.75488879346821</v>
+        <v>64.53513638340456</v>
       </c>
       <c r="H31" t="n">
-        <v>79.75488879346821</v>
+        <v>64.53513638340456</v>
       </c>
       <c r="I31" t="n">
-        <v>79.75488879346821</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="J31" t="n">
-        <v>79.75488879346821</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="K31" t="n">
-        <v>79.75488879346821</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="L31" t="n">
-        <v>79.75488879346821</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1390261192994</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1390261192994</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192994</v>
+        <v>112.6830192417082</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204433</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974705</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1225208817079</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583561</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468465</v>
@@ -6677,19 +6677,19 @@
         <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848168</v>
+        <v>876.983187784817</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505968</v>
+        <v>752.362737450597</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503073</v>
+        <v>593.6950624503075</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213538</v>
+        <v>402.9866424213541</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345173</v>
+        <v>196.481267534517</v>
       </c>
       <c r="H32" t="n">
         <v>62.51751034443699</v>
@@ -6701,25 +6701,25 @@
         <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687724</v>
+        <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810449</v>
+        <v>614.5274605793805</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676263</v>
+        <v>907.632518865962</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544525</v>
+        <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.984976505149</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
-        <v>1658.289033927864</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1781.721722009733</v>
+        <v>1762.404372097463</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
@@ -6740,7 +6740,7 @@
         <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.048403687254</v>
+        <v>1345.048403687255</v>
       </c>
       <c r="Y32" t="n">
         <v>1175.464915195234</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>519.872463329232</v>
+        <v>209.1976383187802</v>
       </c>
       <c r="C33" t="n">
-        <v>519.872463329232</v>
+        <v>209.1976383187802</v>
       </c>
       <c r="D33" t="n">
-        <v>519.872463329232</v>
+        <v>209.1976383187802</v>
       </c>
       <c r="E33" t="n">
-        <v>346.3092594506464</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G33" t="n">
         <v>35.63443444019466</v>
@@ -6780,49 +6780,49 @@
         <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
-        <v>73.5924584634603</v>
+        <v>73.59245846346028</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084574</v>
+        <v>190.9182484084573</v>
       </c>
       <c r="M33" t="n">
-        <v>372.5865755917237</v>
+        <v>372.5865755917235</v>
       </c>
       <c r="N33" t="n">
-        <v>577.483012391432</v>
+        <v>577.4830123914318</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347032</v>
+        <v>709.176139934703</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132784</v>
+        <v>792.7949833132782</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.7949833132784</v>
+        <v>785.8518626482044</v>
       </c>
       <c r="R33" t="n">
-        <v>656.7122964673546</v>
+        <v>785.8518626482044</v>
       </c>
       <c r="S33" t="n">
-        <v>656.7122964673546</v>
+        <v>785.8518626482044</v>
       </c>
       <c r="T33" t="n">
-        <v>656.1333636637618</v>
+        <v>785.2729298446116</v>
       </c>
       <c r="U33" t="n">
-        <v>633.0725981410354</v>
+        <v>545.6486150174917</v>
       </c>
       <c r="V33" t="n">
-        <v>606.556429349063</v>
+        <v>519.1324462255193</v>
       </c>
       <c r="W33" t="n">
-        <v>553.7214093837479</v>
+        <v>249.7338769558106</v>
       </c>
       <c r="X33" t="n">
-        <v>550.7769643048377</v>
+        <v>246.7894318769005</v>
       </c>
       <c r="Y33" t="n">
-        <v>519.872463329232</v>
+        <v>237.7122881166217</v>
       </c>
     </row>
     <row r="34">
@@ -6850,55 +6850,55 @@
         <v>35.63443444019466</v>
       </c>
       <c r="H34" t="n">
-        <v>83.72197069494435</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I34" t="n">
-        <v>83.72197069494435</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J34" t="n">
-        <v>83.72197069494435</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K34" t="n">
-        <v>83.72197069494435</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="L34" t="n">
-        <v>83.72197069494435</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854719</v>
+        <v>173.1173365301075</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854719</v>
+        <v>173.1173365301075</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854719</v>
+        <v>259.4241500854718</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854719</v>
+        <v>259.4241500854718</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979498</v>
+        <v>238.1710034979496</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863109</v>
+        <v>228.7126565863108</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925158</v>
+        <v>153.7039245925157</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742327</v>
+        <v>122.6826100742326</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455005</v>
+        <v>46.00302090454999</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001169</v>
+        <v>38.40550414001167</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019466</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379699</v>
+        <v>623.0203756379701</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837507</v>
+        <v>544.0845948837509</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385737</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273268</v>
+        <v>377.2836627273271</v>
       </c>
       <c r="F35" t="n">
         <v>244.8188392874163</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J35" t="n">
-        <v>51.5733467117585</v>
+        <v>214.1563728731202</v>
       </c>
       <c r="K35" t="n">
-        <v>149.7150267294528</v>
+        <v>472.0130151818677</v>
       </c>
       <c r="L35" t="n">
-        <v>196.4261850684893</v>
+        <v>518.7241735209042</v>
       </c>
       <c r="M35" t="n">
-        <v>454.2828273772368</v>
+        <v>700.6810895725962</v>
       </c>
       <c r="N35" t="n">
-        <v>529.599770680899</v>
+        <v>958.5377318813438</v>
       </c>
       <c r="O35" t="n">
-        <v>787.4564129896465</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="P35" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="Q35" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="T35" t="n">
         <v>1041.845019429283</v>
@@ -6971,16 +6971,16 @@
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781206</v>
+        <v>992.5311717781208</v>
       </c>
       <c r="W35" t="n">
-        <v>926.02875825159</v>
+        <v>926.0287582515903</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190604</v>
+        <v>837.4190210190607</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160825</v>
+        <v>726.0791291160828</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.8278205499271</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C36" t="n">
-        <v>354.8278205499271</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8278205499271</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2646166713416</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185131</v>
+        <v>58.79492441185127</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1207143568484</v>
+        <v>176.1207143568483</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401147</v>
+        <v>357.7890415401146</v>
       </c>
       <c r="N36" t="n">
-        <v>562.685478339823</v>
+        <v>562.6854783398228</v>
       </c>
       <c r="O36" t="n">
-        <v>694.3786058830942</v>
+        <v>694.378605883094</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="R36" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="U36" t="n">
-        <v>617.9199971734834</v>
+        <v>688.1056230037494</v>
       </c>
       <c r="V36" t="n">
-        <v>617.9199971734834</v>
+        <v>688.1056230037494</v>
       </c>
       <c r="W36" t="n">
-        <v>354.8278205499271</v>
+        <v>425.0134463801931</v>
       </c>
       <c r="X36" t="n">
-        <v>354.8278205499271</v>
+        <v>425.0134463801931</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.8278205499271</v>
+        <v>199.3727533155208</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U37" t="n">
         <v>39.27289296922554</v>
@@ -7132,13 +7132,13 @@
         <v>39.27289296922554</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379707</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837515</v>
       </c>
       <c r="D38" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385742</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273275</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I38" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J38" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K38" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L38" t="n">
-        <v>309.429989020506</v>
+        <v>278.6935426973332</v>
       </c>
       <c r="M38" t="n">
-        <v>497.4119375104124</v>
+        <v>359.5446663106786</v>
       </c>
       <c r="N38" t="n">
-        <v>572.7288808140746</v>
+        <v>480.5027782097424</v>
       </c>
       <c r="O38" t="n">
-        <v>606.939175890857</v>
+        <v>738.35942051849</v>
       </c>
       <c r="P38" t="n">
-        <v>861.3277823304932</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581262</v>
       </c>
       <c r="T38" t="n">
         <v>1041.845019429283</v>
@@ -7208,16 +7208,16 @@
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781211</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515905</v>
+        <v>926.0287582515907</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190611</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160833</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83690038858565</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185131</v>
+        <v>58.79492441185127</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1207143568484</v>
+        <v>176.1207143568483</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401147</v>
+        <v>357.7890415401146</v>
       </c>
       <c r="N39" t="n">
-        <v>562.685478339823</v>
+        <v>562.6854783398228</v>
       </c>
       <c r="O39" t="n">
-        <v>694.3786058830942</v>
+        <v>694.378605883094</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616694</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.0543285965956</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="R39" t="n">
-        <v>771.0543285965956</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="S39" t="n">
-        <v>577.5276544955399</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="T39" t="n">
-        <v>462.464929939077</v>
+        <v>777.9974492616692</v>
       </c>
       <c r="U39" t="n">
-        <v>462.464929939077</v>
+        <v>631.864745678923</v>
       </c>
       <c r="V39" t="n">
-        <v>462.464929939077</v>
+        <v>388.7850275825571</v>
       </c>
       <c r="W39" t="n">
-        <v>199.3727533155208</v>
+        <v>388.7850275825571</v>
       </c>
       <c r="X39" t="n">
-        <v>199.3727533155208</v>
+        <v>388.7850275825571</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.3727533155208</v>
+        <v>388.7850275825571</v>
       </c>
     </row>
     <row r="40">
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
         <v>39.27289296922554</v>
@@ -7369,13 +7369,13 @@
         <v>39.27289296922554</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153498</v>
+        <v>708.1156967153502</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893251</v>
+        <v>478.5937231893254</v>
       </c>
       <c r="F41" t="n">
         <v>314.7683790646142</v>
@@ -7409,31 +7409,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06539879618224</v>
+        <v>241.5692496355964</v>
       </c>
       <c r="L41" t="n">
-        <v>313.3785945022027</v>
+        <v>526.8824453416169</v>
       </c>
       <c r="M41" t="n">
-        <v>632.8317554825321</v>
+        <v>607.7335689549623</v>
       </c>
       <c r="N41" t="n">
-        <v>946.7507361531783</v>
+        <v>921.6525496256083</v>
       </c>
       <c r="O41" t="n">
-        <v>1029.836988917032</v>
+        <v>1194.464882069375</v>
       </c>
       <c r="P41" t="n">
-        <v>1253.489149033496</v>
+        <v>1194.464882069375</v>
       </c>
       <c r="Q41" t="n">
-        <v>1403.269939809112</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.269939809112</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S41" t="n">
         <v>1403.269939809112</v>
@@ -7454,7 +7454,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>186.5849245648477</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>186.5849245648477</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
         <v>28.06539879618224</v>
@@ -7491,49 +7491,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944789</v>
+        <v>66.02342281944786</v>
       </c>
       <c r="L42" t="n">
-        <v>183.349212764445</v>
+        <v>183.3492127644449</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0175399477113</v>
+        <v>365.0175399477112</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474196</v>
+        <v>569.9139767474194</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906908</v>
+        <v>701.6071042906906</v>
       </c>
       <c r="P42" t="n">
-        <v>785.225947669266</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.225947669266</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="R42" t="n">
-        <v>649.1432608233422</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="S42" t="n">
-        <v>455.6165867222865</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="T42" t="n">
-        <v>455.6165867222865</v>
+        <v>568.0834655612795</v>
       </c>
       <c r="U42" t="n">
-        <v>455.6165867222865</v>
+        <v>568.0834655612795</v>
       </c>
       <c r="V42" t="n">
-        <v>212.5368686259205</v>
+        <v>325.0037474649135</v>
       </c>
       <c r="W42" t="n">
-        <v>186.5849245648477</v>
+        <v>55.60517819520487</v>
       </c>
       <c r="X42" t="n">
-        <v>186.5849245648477</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y42" t="n">
-        <v>186.5849245648477</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7561,49 +7561,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O43" t="n">
-        <v>92.92066865790552</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.92066865790552</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1258067652161</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1258067652161</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1258067652161</v>
+        <v>130.125806765216</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566338</v>
+        <v>82.00015067566332</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162252</v>
+        <v>77.86191206162249</v>
       </c>
       <c r="W43" t="n">
         <v>28.06539879618224</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543705</v>
+        <v>818.4119981543702</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153509</v>
+        <v>708.1156967153506</v>
       </c>
       <c r="D44" t="n">
         <v>610.3783222853731</v>
@@ -7646,28 +7646,28 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J44" t="n">
-        <v>45.2219959771669</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K44" t="n">
-        <v>45.2219959771669</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L44" t="n">
-        <v>330.5351916831874</v>
+        <v>237.3595832965804</v>
       </c>
       <c r="M44" t="n">
-        <v>649.9883526635168</v>
+        <v>556.8127442769097</v>
       </c>
       <c r="N44" t="n">
-        <v>725.3052959671791</v>
+        <v>870.7317249475559</v>
       </c>
       <c r="O44" t="n">
-        <v>998.1176284109454</v>
+        <v>1143.544057391322</v>
       </c>
       <c r="P44" t="n">
-        <v>1221.769788527409</v>
+        <v>1367.196217507786</v>
       </c>
       <c r="Q44" t="n">
-        <v>1371.550579303025</v>
+        <v>1367.196217507786</v>
       </c>
       <c r="R44" t="n">
         <v>1371.550579303025</v>
@@ -7679,19 +7679,19 @@
         <v>1403.269939809112</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.039245369685</v>
+        <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
         <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.501942822392</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.531684905062</v>
+        <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172835</v>
+        <v>952.8312723172832</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>325.9267157262377</v>
+        <v>76.86651360841444</v>
       </c>
       <c r="C45" t="n">
-        <v>136.5144414592014</v>
+        <v>76.86651360841444</v>
       </c>
       <c r="D45" t="n">
-        <v>136.5144414592014</v>
+        <v>76.86651360841444</v>
       </c>
       <c r="E45" t="n">
-        <v>136.5144414592014</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>136.5144414592014</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5144414592014</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>136.5144414592014</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
         <v>28.06539879618224</v>
@@ -7728,49 +7728,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02342281944792</v>
+        <v>66.02342281944786</v>
       </c>
       <c r="L45" t="n">
-        <v>183.349212764445</v>
+        <v>183.3492127644449</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0175399477113</v>
+        <v>365.0175399477112</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9139767474196</v>
+        <v>569.9139767474194</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6071042906909</v>
+        <v>701.6071042906906</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2259476692661</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2259476692661</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2259476692661</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="S45" t="n">
-        <v>591.6992735682104</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="T45" t="n">
-        <v>591.6992735682104</v>
+        <v>568.0834655612795</v>
       </c>
       <c r="U45" t="n">
-        <v>591.6992735682104</v>
+        <v>328.4591507341596</v>
       </c>
       <c r="V45" t="n">
-        <v>577.5193528519829</v>
+        <v>328.4591507341596</v>
       </c>
       <c r="W45" t="n">
-        <v>551.5674087909101</v>
+        <v>302.5072066730868</v>
       </c>
       <c r="X45" t="n">
-        <v>551.5674087909101</v>
+        <v>302.5072066730868</v>
       </c>
       <c r="Y45" t="n">
-        <v>325.9267157262377</v>
+        <v>76.86651360841444</v>
       </c>
     </row>
     <row r="46">
@@ -7813,34 +7813,34 @@
         <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1258067652161</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1258067652161</v>
+        <v>124.6079130418985</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1258067652161</v>
+        <v>124.6079130418985</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1258067652161</v>
+        <v>124.6079130418985</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1258067652161</v>
+        <v>124.6079130418985</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1258067652161</v>
+        <v>124.6079130418985</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1258067652161</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1258067652161</v>
+        <v>130.125806765216</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566338</v>
+        <v>82.00015067566332</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162252</v>
+        <v>77.86191206162249</v>
       </c>
       <c r="W46" t="n">
         <v>28.06539879618224</v>
@@ -8535,10 +8535,10 @@
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.4111170279804</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
@@ -8547,7 +8547,7 @@
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>166.8235507420168</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -23258,25 +23258,25 @@
         <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
         <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857869</v>
       </c>
       <c r="F11" t="n">
-        <v>179.3221304581492</v>
+        <v>225.0574857904725</v>
       </c>
       <c r="G11" t="n">
         <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>96.27603498584992</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.65775849267158</v>
+        <v>204.1438035689089</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8479285692404</v>
+        <v>65.56445169500783</v>
       </c>
       <c r="F14" t="n">
         <v>225.0574857904725</v>
       </c>
       <c r="G14" t="n">
-        <v>52.21042602353964</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.8703951070085</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1438035689089</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88193.19951764595</v>
+        <v>88193.19951764596</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764599</v>
+        <v>88193.19951764592</v>
       </c>
       <c r="D2" t="n">
-        <v>88246.65982545223</v>
+        <v>88246.65982545225</v>
       </c>
       <c r="E2" t="n">
-        <v>75972.27874814466</v>
+        <v>75972.27874814469</v>
       </c>
       <c r="F2" t="n">
-        <v>75972.27874814466</v>
+        <v>75972.27874814477</v>
       </c>
       <c r="G2" t="n">
         <v>88371.85488585365</v>
       </c>
       <c r="H2" t="n">
+        <v>88371.85488585365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88371.85488585362</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88371.8548858537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>88371.85488585359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88371.85488585368</v>
+      </c>
+      <c r="M2" t="n">
+        <v>88371.85488585364</v>
+      </c>
+      <c r="N2" t="n">
         <v>88371.85488585367</v>
       </c>
-      <c r="I2" t="n">
-        <v>88371.85488585368</v>
-      </c>
-      <c r="J2" t="n">
-        <v>88371.85488585358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>88371.85488585362</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88371.85488585367</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88371.85488585371</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88371.8548858537</v>
-      </c>
       <c r="O2" t="n">
-        <v>88371.85488585375</v>
+        <v>88371.85488585373</v>
       </c>
       <c r="P2" t="n">
         <v>88371.85488585375</v>
@@ -26372,7 +26372,7 @@
         <v>1092.445151390297</v>
       </c>
       <c r="E3" t="n">
-        <v>279010.1432673799</v>
+        <v>279010.1432673798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96176.03924395816</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852183</v>
+        <v>46128.9284985218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134116</v>
+        <v>72249.07655134119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,13 +26436,13 @@
         <v>337819.8605646756</v>
       </c>
       <c r="I4" t="n">
-        <v>337819.8605646756</v>
+        <v>337819.8605646757</v>
       </c>
       <c r="J4" t="n">
+        <v>338510.0487309746</v>
+      </c>
+      <c r="K4" t="n">
         <v>338510.0487309745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>338510.0487309744</v>
       </c>
       <c r="L4" t="n">
         <v>338493.7904235544</v>
@@ -26451,7 +26451,7 @@
         <v>337685.3766657655</v>
       </c>
       <c r="N4" t="n">
-        <v>337685.3766657654</v>
+        <v>337685.3766657655</v>
       </c>
       <c r="O4" t="n">
         <v>338072.405993227</v>
@@ -26476,16 +26476,16 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="F5" t="n">
         <v>28641.35152034391</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.6377477421</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.6377477421</v>
       </c>
       <c r="I5" t="n">
         <v>38671.63774774209</v>
@@ -26500,10 +26500,10 @@
         <v>47311.58842539591</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105828</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328072.0079674692</v>
+        <v>-328076.4743516744</v>
       </c>
       <c r="C6" t="n">
-        <v>-328072.0079674692</v>
+        <v>-328076.4743516744</v>
       </c>
       <c r="D6" t="n">
-        <v>-328988.1776350153</v>
+        <v>-328991.3075115253</v>
       </c>
       <c r="E6" t="n">
-        <v>-498884.0102994506</v>
+        <v>-499193.9997028933</v>
       </c>
       <c r="F6" t="n">
-        <v>-219873.8670320707</v>
+        <v>-220183.8564355133</v>
       </c>
       <c r="G6" t="n">
-        <v>-383567.7751031457</v>
+        <v>-383567.7751031458</v>
       </c>
       <c r="H6" t="n">
         <v>-288119.6434265641</v>
       </c>
       <c r="I6" t="n">
-        <v>-288119.6434265641</v>
+        <v>-288119.6434265642</v>
       </c>
       <c r="J6" t="n">
         <v>-441077.5312263373</v>
@@ -26552,10 +26552,10 @@
         <v>-393609.5632070547</v>
       </c>
       <c r="M6" t="n">
-        <v>-336355.4289370344</v>
+        <v>-336355.4289370346</v>
       </c>
       <c r="N6" t="n">
-        <v>-290226.5004385125</v>
+        <v>-290226.5004385128</v>
       </c>
       <c r="O6" t="n">
         <v>-365746.1819697727</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1559648918174</v>
+        <v>101.1559648918172</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F4" t="n">
         <v>188.4860450762374</v>
@@ -26811,7 +26811,7 @@
         <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335582</v>
       </c>
       <c r="K4" t="n">
         <v>448.947299933558</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315228</v>
+        <v>57.66116062315226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844952</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918173</v>
+        <v>101.1559648918172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9691756451126</v>
+        <v>184.9691756451125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495737</v>
+        <v>90.35623009495731</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M4" t="n">
-        <v>184.9691756451126</v>
+        <v>184.9691756451125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>399.8223516122474</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27877,7 +27877,7 @@
         <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>58.28574254100896</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
         <v>16.99055923469257</v>
@@ -27938,22 +27938,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>168.3107024086749</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.7581608527822</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.1447276072476</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>213.7960450083458</v>
       </c>
       <c r="Y9" t="n">
         <v>219.8674167029008</v>
@@ -28114,25 +28114,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
-        <v>178.141763849541</v>
+        <v>6.735077083103242</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O11" t="n">
         <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163697</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.8708873782848</v>
+        <v>122.0510061306394</v>
       </c>
       <c r="R11" t="n">
         <v>178.141763849541</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.141763849541</v>
+        <v>78.5260418866756</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,13 +28184,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I12" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>69.86976992668285</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T12" t="n">
-        <v>178.141763849541</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U12" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>178.141763849541</v>
+        <v>52.16287583916494</v>
       </c>
       <c r="W12" t="n">
         <v>178.141763849541</v>
@@ -28235,7 +28235,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.89824105778825</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="13">
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.141763849541</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.141763849541</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I13" t="n">
+        <v>164.8538042427314</v>
+      </c>
+      <c r="J13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="J13" t="n">
-        <v>120.241573402485</v>
-      </c>
       <c r="K13" t="n">
-        <v>178.141763849541</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.11304672419044</v>
+        <v>178.141763849541</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O13" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>167.8309414829953</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2193142604766</v>
@@ -28348,28 +28348,28 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>178.141763849541</v>
+        <v>158.5130303683049</v>
       </c>
       <c r="K14" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549885</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8182434465956</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674878</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>53.94195765711117</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
         <v>125.7358448975026</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>26.48501221066905</v>
       </c>
       <c r="U15" t="n">
         <v>178.141763849541</v>
@@ -28466,10 +28466,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="W15" t="n">
-        <v>98.94993436415399</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X15" t="n">
-        <v>28.82686936323324</v>
+        <v>87.26901385376411</v>
       </c>
       <c r="Y15" t="n">
         <v>178.141763849541</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="E16" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F16" t="n">
-        <v>178.141763849541</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>178.141763849541</v>
@@ -28509,22 +28509,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L16" t="n">
+        <v>32.15595010613789</v>
+      </c>
+      <c r="M16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="M16" t="n">
-        <v>25.22122397250155</v>
-      </c>
       <c r="N16" t="n">
-        <v>107.6166199401161</v>
+        <v>178.141763849541</v>
       </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>136.9151095836613</v>
       </c>
       <c r="P16" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q16" t="n">
         <v>178.141763849541</v>
@@ -28585,40 +28585,40 @@
         <v>297.4519284452681</v>
       </c>
       <c r="J17" t="n">
-        <v>200.5716929698521</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103221</v>
+        <v>128.4423690246447</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549885</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8182434465956</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4083245674878</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163697</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.718430900371</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R17" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S17" t="n">
+        <v>227.518407079678</v>
+      </c>
+      <c r="T17" t="n">
         <v>297.4519284452681</v>
       </c>
-      <c r="S17" t="n">
-        <v>297.4519284452681</v>
-      </c>
-      <c r="T17" t="n">
-        <v>222.4661527464647</v>
-      </c>
       <c r="U17" t="n">
-        <v>297.4519284452681</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
         <v>297.4519284452681</v>
@@ -28646,10 +28646,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28664,7 +28664,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R18" t="n">
-        <v>99.48164263588401</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807779</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>37.21699810518527</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916483</v>
       </c>
       <c r="W18" t="n">
-        <v>78.21853850077423</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28746,22 +28746,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K19" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P19" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2193142604766</v>
@@ -28822,10 +28822,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78688000567908</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K20" t="n">
-        <v>136.607205482168</v>
+        <v>195.2211221593407</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5869311878744</v>
+        <v>183.5911883004773</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2044759766084</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8854391524908</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="S20" t="n">
         <v>227.518407079678</v>
@@ -28855,7 +28855,7 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V20" t="n">
         <v>297.4519284452681</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>169.9043009710945</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,10 +28898,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
@@ -28934,19 +28934,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>48.74202660261125</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916483</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077423</v>
+        <v>78.21853850077417</v>
       </c>
       <c r="X21" t="n">
-        <v>28.82686936323324</v>
+        <v>28.82686936323319</v>
       </c>
       <c r="Y21" t="n">
-        <v>217.208633691196</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K22" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P22" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2193142604766</v>
@@ -29056,16 +29056,16 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78688000567908</v>
+        <v>265.2729250819164</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103221</v>
+        <v>195.2211221593406</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3030568549883</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878743</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.333778031966</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8854391524908</v>
+        <v>277.4561855578708</v>
       </c>
       <c r="S23" t="n">
         <v>227.518407079678</v>
@@ -29092,7 +29092,7 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452681</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>135.4999372401472</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,19 +29126,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>127.5267905942433</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807894</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066917</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261131</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077429</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.8268693632333</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K25" t="n">
-        <v>67.03321058462937</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15595010613787</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250155</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575094</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028788</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P25" t="n">
-        <v>58.48196179900675</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2193142604766</v>
@@ -29296,7 +29296,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="J26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521298</v>
       </c>
       <c r="K26" t="n">
         <v>213.488029352129</v>
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>64.63307046507663</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>52.4783038239311</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423126</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5914073600452</v>
@@ -29408,7 +29408,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="U27" t="n">
-        <v>119.316961648499</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
         <v>213.488029352129</v>
@@ -29420,7 +29420,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.488029352129</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29451,34 +29451,34 @@
         <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>205.0197882281522</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
+        <v>67.03321058462939</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32.15595010613789</v>
+      </c>
+      <c r="M28" t="n">
+        <v>25.22122397250156</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16.52441230575095</v>
+      </c>
+      <c r="O28" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="L28" t="n">
-        <v>32.15595010613787</v>
-      </c>
-      <c r="M28" t="n">
-        <v>25.22122397250155</v>
-      </c>
-      <c r="N28" t="n">
-        <v>16.52441230575094</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.48281412028788</v>
-      </c>
       <c r="P28" t="n">
-        <v>58.48196179900675</v>
+        <v>115.0254759859683</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
-        <v>213.488029352129</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S28" t="n">
         <v>213.488029352129</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>67.88819100133063</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
         <v>125.7358448975026</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393109</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>213.488029352129</v>
@@ -29648,16 +29648,16 @@
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
+        <v>123.0220405763064</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.488029352129</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>174.8679963239868</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29682,34 +29682,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7008027322384</v>
+        <v>197.6092394885212</v>
       </c>
       <c r="H31" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8538042427313</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K31" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M31" t="n">
+        <v>25.22122397250156</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16.52441230575095</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.4828141202879</v>
+      </c>
+      <c r="P31" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16.52441230575092</v>
-      </c>
-      <c r="O31" t="n">
-        <v>37.48281412028787</v>
-      </c>
-      <c r="P31" t="n">
-        <v>58.48196179900674</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
@@ -29776,7 +29776,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884563</v>
       </c>
       <c r="M32" t="n">
         <v>214.3979138113496</v>
@@ -29785,7 +29785,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
-        <v>211.7960463473149</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="P32" t="n">
         <v>214.3979138113496</v>
@@ -29794,7 +29794,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8854391524908</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S32" t="n">
         <v>214.3979138113496</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>148.5209910978027</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393109</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
@@ -29882,19 +29882,19 @@
         <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.7888301681759</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="34">
@@ -29922,34 +29922,34 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3979138113496</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M34" t="n">
-        <v>202.6981728518223</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028787</v>
+        <v>176.3544323929271</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2193142604766</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="R34" t="n">
         <v>203.4312113734075</v>
@@ -30004,31 +30004,31 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
+        <v>241.0121589565495</v>
+      </c>
+      <c r="J35" t="n">
         <v>272.0590744345018</v>
       </c>
-      <c r="J35" t="n">
-        <v>76.78688000567907</v>
-      </c>
       <c r="K35" t="n">
-        <v>105.8680872019863</v>
+        <v>267.196331940424</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7934532276788</v>
+        <v>102.127063069037</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3835343485711</v>
       </c>
       <c r="O35" t="n">
-        <v>225.9054012444092</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0590744345018</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71843090037098</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R35" t="n">
         <v>194.8854391524908</v>
@@ -30037,7 +30037,7 @@
         <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
         <v>250.1505464515833</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446376404189</v>
@@ -30086,7 +30086,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393109</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
@@ -30119,19 +30119,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
-        <v>78.75139411154441</v>
+        <v>148.235163683508</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243328719690908</v>
+        <v>6.243328719690851</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30162,28 +30162,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I37" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J37" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K37" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M37" t="n">
-        <v>60.77791890724116</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028787</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900674</v>
+        <v>94.03865673374639</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2193142604766</v>
@@ -30241,31 +30241,31 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78688000567907</v>
+        <v>76.78688000567909</v>
       </c>
       <c r="K38" t="n">
-        <v>6.735077083103192</v>
+        <v>6.735077083103242</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2782666360717</v>
+        <v>213.2782666360718</v>
       </c>
       <c r="M38" t="n">
-        <v>108.2129544207686</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>46.10219050040575</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.9054012444093</v>
       </c>
       <c r="P38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R38" t="n">
         <v>194.8854391524908</v>
@@ -30274,7 +30274,7 @@
         <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505464515833</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393109</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,25 +30344,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>101.0589599760083</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>92.55669513192987</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243328719690908</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30399,31 +30399,31 @@
         <v>165.824644867158</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J40" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
-        <v>102.589905519369</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028787</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900674</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.2193142604766</v>
+        <v>162.7760091952162</v>
       </c>
       <c r="R40" t="n">
         <v>203.4312113734075</v>
@@ -30481,34 +30481,34 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567907</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
-        <v>6.735077083103192</v>
+        <v>58.17025352558051</v>
       </c>
       <c r="L41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="O41" t="n">
-        <v>49.36965422936512</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>15.100886111637</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8854391524908</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T41" t="n">
         <v>222.4661527464647</v>
@@ -30542,7 +30542,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>2.237984565599817</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30560,7 +30560,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393109</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423112</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280716788486</v>
@@ -30599,10 +30599,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>190.0485328344382</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30633,37 +30633,37 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>231.3350184648583</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613786</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250153</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575092</v>
+        <v>16.52441230575095</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028787</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900674</v>
+        <v>161.573282979849</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>241.0121589565495</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S43" t="n">
         <v>235.4385289329965</v>
@@ -30718,19 +30718,19 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J44" t="n">
-        <v>94.11677614808779</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>6.735077083103157</v>
+        <v>6.735077083103242</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O44" t="n">
         <v>241.0121589565495</v>
@@ -30739,10 +30739,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8854391524908</v>
+        <v>199.2837844002078</v>
       </c>
       <c r="S44" t="n">
         <v>241.0121589565495</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>123.5144681756898</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30794,10 +30794,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393108</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423094</v>
+        <v>6.873689458423137</v>
       </c>
       <c r="R45" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.6107994063371</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
@@ -30873,28 +30873,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I46" t="n">
-        <v>164.8538042427313</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J46" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K46" t="n">
-        <v>67.03321058462936</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15595010613784</v>
+        <v>32.15595010613789</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3125451533438</v>
+        <v>25.22122397250156</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575091</v>
+        <v>114.0421034630401</v>
       </c>
       <c r="O46" t="n">
-        <v>37.48281412028786</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900673</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2193142604766</v>
@@ -30903,7 +30903,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4385289329965</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T46" t="n">
         <v>223.761677253872</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I11" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U11" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190601</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N12" t="n">
-        <v>38.10907524328135</v>
+        <v>38.1090752432813</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I13" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J13" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P13" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I14" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U14" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190601</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N15" t="n">
-        <v>38.10907524328135</v>
+        <v>38.10907524328141</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I16" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J16" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P16" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I17" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U17" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I18" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190601</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2426985091456</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N18" t="n">
-        <v>38.10907524328135</v>
+        <v>38.10907524328141</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S18" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H19" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I19" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J19" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P19" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I20" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U20" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I21" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190601</v>
+        <v>35.13452037190631</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N21" t="n">
-        <v>38.10907524328135</v>
+        <v>38.10907524328141</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I22" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J22" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P22" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I23" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I24" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190601</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N24" t="n">
         <v>38.1090752432813</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R24" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S24" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H25" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I25" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J25" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P25" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937375</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239491</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I26" t="n">
         <v>15.67764959393683</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537439</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565831</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594155</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355904</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762489</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911028</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467112</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883913</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305776</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381053</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780141653523337</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.032532571623499</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729655</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394167</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49126721132798</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881733</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190601</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914543</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604042</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452711</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572087</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698058</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369293</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50909282083553</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894773</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877003129580944</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.1824123957065557</v>
       </c>
       <c r="H28" t="n">
-        <v>1.621812027281924</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I28" t="n">
-        <v>5.48563822724806</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J28" t="n">
         <v>12.89655637645349</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208893</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804558</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425582</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662232</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586845</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P28" t="n">
-        <v>22.0619501134547</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27455069866441</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769314</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813339</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189198</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539416</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239493</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565833</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381059</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190604</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O30" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R30" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H31" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J31" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345471</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27455069866442</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769319</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239493</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565833</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381059</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190604</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O33" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H34" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J34" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06195011345471</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27455069866442</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769319</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S34" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239493</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565833</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381059</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190604</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O36" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R36" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S36" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H37" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J37" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06195011345471</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27455069866442</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769319</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S37" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239493</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565833</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381059</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190604</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O39" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R39" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S39" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H40" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J40" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06195011345471</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27455069866442</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769319</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S40" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937378</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239493</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393684</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537441</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565833</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594157</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355908</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762492</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911032</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467115</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883916</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54467690305778</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381059</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780141653523338</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349901</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729656</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394168</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327984</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881734</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190604</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914546</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604045</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452714</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O42" t="n">
-        <v>51.7679964857209</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698061</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369295</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R42" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S42" t="n">
-        <v>4.041467087894776</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809444</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431452333374774</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824123957065558</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H43" t="n">
-        <v>1.621812027281925</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248063</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J43" t="n">
-        <v>12.8965563764535</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208894</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804559</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425584</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91407142662234</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586847</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06195011345471</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27455069866442</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769319</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S43" t="n">
-        <v>3.17895056881334</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189203</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539422</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.406657145293738</v>
+        <v>0.4066571452937374</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239495</v>
+        <v>4.164677489239489</v>
       </c>
       <c r="I44" t="n">
-        <v>15.67764959393685</v>
+        <v>15.67764959393683</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537443</v>
+        <v>34.51451688537438</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565837</v>
+        <v>51.72831384565828</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594162</v>
+        <v>64.17354745594152</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355913</v>
+        <v>71.40543646355901</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762496</v>
+        <v>72.56085107762485</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911035</v>
+        <v>68.51715408911025</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467119</v>
+        <v>58.47780581467109</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883918</v>
+        <v>43.91439679883911</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54467690305779</v>
+        <v>25.54467690305775</v>
       </c>
       <c r="S44" t="n">
-        <v>9.266699698381064</v>
+        <v>9.26669969838105</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780141653523339</v>
+        <v>1.780141653523336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253257162349903</v>
+        <v>0.03253257162349898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729658</v>
+        <v>0.2175807546729654</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394169</v>
+        <v>2.101372025394166</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327989</v>
+        <v>7.491267211327977</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55660980881735</v>
+        <v>20.55660980881732</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13452037190606</v>
+        <v>35.134520371906</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914548</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604048</v>
+        <v>55.13000086604039</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452718</v>
+        <v>56.58912794452709</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572093</v>
+        <v>51.76799648572085</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698063</v>
+        <v>41.54838112698057</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77399247369296</v>
+        <v>27.77399247369292</v>
       </c>
       <c r="R45" t="n">
-        <v>13.50909282083554</v>
+        <v>13.50909282083552</v>
       </c>
       <c r="S45" t="n">
-        <v>4.041467087894778</v>
+        <v>4.041467087894771</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877003129580945</v>
+        <v>0.8770031295809436</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431452333374775</v>
+        <v>0.01431452333374773</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.182412395706556</v>
+        <v>0.1824123957065557</v>
       </c>
       <c r="H46" t="n">
-        <v>1.621812027281926</v>
+        <v>1.621812027281923</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248066</v>
+        <v>5.485638227248057</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89655637645351</v>
+        <v>12.89655637645349</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19300379208895</v>
+        <v>21.19300379208892</v>
       </c>
       <c r="L46" t="n">
-        <v>27.11974835804561</v>
+        <v>27.11974835804556</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425585</v>
+        <v>28.59397217425581</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91407142662235</v>
+        <v>27.91407142662231</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78316298586848</v>
+        <v>25.78316298586844</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06195011345472</v>
+        <v>22.06195011345469</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27455069866443</v>
+        <v>15.2745506986644</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769323</v>
+        <v>8.20192462876931</v>
       </c>
       <c r="S46" t="n">
-        <v>3.178950568813342</v>
+        <v>3.178950568813337</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189207</v>
+        <v>0.7793984180189195</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539427</v>
+        <v>0.009949767038539411</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
@@ -35267,7 +35267,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>3.374773696533902</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4066867664378</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124898</v>
+        <v>47.18298822124895</v>
       </c>
       <c r="M11" t="n">
-        <v>81.6678016296418</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874969</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.15245647791382</v>
+        <v>32.33257523026837</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M12" t="n">
         <v>183.503360791178</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4860450762374</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O12" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,40 +35541,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845728874</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>11.68458287756863</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.21488163109433</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.440961117302569</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.28795960680962</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705595</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
-        <v>59.89182275168889</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>109.3489796839885</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>81.72615036262577</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664378</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124898</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="M14" t="n">
+        <v>81.66780162964177</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.4860450762374</v>
       </c>
-      <c r="N14" t="n">
-        <v>76.07772050874969</v>
-      </c>
       <c r="O14" t="n">
-        <v>34.55585361291145</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P14" t="n">
-        <v>38.84107154547419</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916997</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M15" t="n">
         <v>183.503360791178</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845728874</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883027</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.46562263731599</v>
       </c>
       <c r="F16" t="n">
-        <v>39.21488163109433</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>9.440961117302569</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9858137434031</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N16" t="n">
-        <v>91.09220763436518</v>
+        <v>161.61735154379</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>99.43229546337341</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>56.43976948871862</v>
       </c>
       <c r="J17" t="n">
-        <v>123.7848129641731</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>121.7072919415414</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124898</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="M17" t="n">
+        <v>81.66780162964177</v>
+      </c>
+      <c r="N17" t="n">
         <v>188.4860450762374</v>
       </c>
-      <c r="N17" t="n">
-        <v>76.07772050874969</v>
-      </c>
       <c r="O17" t="n">
-        <v>34.55585361291145</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559014</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368479</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5108989343406</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M18" t="n">
         <v>183.503360791178</v>
@@ -35978,7 +35978,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>129.8721283990648</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124898</v>
+        <v>47.18298822124895</v>
       </c>
       <c r="M20" t="n">
-        <v>81.6678016296418</v>
+        <v>81.66780162964177</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874969</v>
+        <v>76.07772050874965</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291145</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4860450762374</v>
+        <v>168.4903021888403</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4860450762374</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733931</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M21" t="n">
         <v>183.503360791178</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L23" t="n">
-        <v>188.4860450762373</v>
+        <v>47.18298822124895</v>
       </c>
       <c r="M23" t="n">
-        <v>81.6678016296418</v>
+        <v>81.66780162964177</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874969</v>
+        <v>76.07772050874965</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291145</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.615347131595</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>82.57074640537994</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M24" t="n">
         <v>183.503360791178</v>
@@ -36452,7 +36452,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7011493464499</v>
+        <v>136.7011493464507</v>
       </c>
       <c r="K26" t="n">
         <v>206.7529522690257</v>
@@ -36616,7 +36616,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963817</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733902</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M27" t="n">
         <v>183.503360791178</v>
@@ -36689,7 +36689,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.87110868716087</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.16598398542086</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4548187674996</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.0052152318411</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>56.54351418696152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05681797872151</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L29" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
         <v>289.5657498608787</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O30" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.87110868716087</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>8.410815352014449</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.90843675628275</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63422510939763</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.2668053796274</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0060675531222</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.6110338056705</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282464</v>
+        <v>207.6628367282463</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325985</v>
+        <v>239.4665599097053</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409914</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200993</v>
+        <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
-        <v>246.3518999602263</v>
+        <v>248.953767424261</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6794829109786</v>
+        <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.51247465885878</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O33" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P33" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.5732689441916</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>177.4769488793208</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.8716182726392</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.178599550873</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,28 +37300,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795237</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2721944288228</v>
       </c>
       <c r="K35" t="n">
-        <v>99.13301011888313</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="L35" t="n">
-        <v>47.182988221249</v>
+        <v>47.18298822124895</v>
       </c>
       <c r="M35" t="n">
+        <v>183.7948646986788</v>
+      </c>
+      <c r="N35" t="n">
         <v>260.4612548573207</v>
       </c>
-      <c r="N35" t="n">
-        <v>76.07772050874972</v>
-      </c>
       <c r="O35" t="n">
-        <v>260.4612548573207</v>
+        <v>34.55585361291142</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228649</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37333,7 +37333,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O36" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P36" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795237</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -37549,19 +37549,19 @@
         <v>260.4612548573207</v>
       </c>
       <c r="M38" t="n">
-        <v>189.8807560504105</v>
+        <v>81.66780162964177</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874972</v>
+        <v>122.1799110091554</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291149</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9581883228649</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341309</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O39" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P39" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>51.43517644247727</v>
       </c>
       <c r="L41" t="n">
         <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6799605861913</v>
+        <v>81.66780162964177</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652992</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O41" t="n">
-        <v>83.92550784227662</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2937280561785</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12671980405868</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49375187687153</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733904</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O42" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P42" t="n">
-        <v>84.463478160177</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.51037359770029</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.58094758314201</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>17.32989614240874</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1951471777985</v>
+        <v>47.18298822124895</v>
       </c>
       <c r="M44" t="n">
         <v>322.6799605861913</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874976</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O44" t="n">
-        <v>275.568012569461</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449126</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.398345247716981</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687152</v>
+        <v>13.49375187687153</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54600621008475</v>
+        <v>18.54600621008478</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733906</v>
+        <v>38.34143840733901</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5108989343405</v>
+        <v>118.5108989343404</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5033607911781</v>
+        <v>183.503360791178</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9660977774832</v>
+        <v>206.9660977774831</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0233611548195</v>
+        <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017702</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.0913211808423</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.51769115728918</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.573630023553011</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
